--- a/auto_output1.xlsx
+++ b/auto_output1.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15" conformance="strict">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr dateCompatibility="0" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stabassum\Documents\GitHub\AppiumTestProject\"/>
@@ -15,11 +15,16 @@
     <sheet name="auto" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="8" uniqueCount="8">
   <si>
     <t>demo1</t>
   </si>
@@ -48,7 +53,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -68,8 +73,8 @@
   </fills>
   <borders count="1">
     <border>
-      <left/>
-      <right/>
+      <start/>
+      <end/>
       <top/>
       <bottom/>
       <diagonal/>
@@ -98,7 +103,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -217,25 +222,25 @@
         </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+            <a:gs pos="0%">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110%"/>
+                <a:satMod val="105%"/>
+                <a:tint val="67%"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50%">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105%"/>
+                <a:satMod val="103%"/>
+                <a:tint val="73%"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100%">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105%"/>
+                <a:satMod val="109%"/>
+                <a:tint val="81%"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -243,25 +248,25 @@
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+            <a:gs pos="0%">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103%"/>
+                <a:lumMod val="102%"/>
+                <a:tint val="94%"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50%">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110%"/>
+                <a:lumMod val="100%"/>
+                <a:shade val="100%"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100%">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99%"/>
+                <a:satMod val="120%"/>
+                <a:shade val="78%"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -274,21 +279,21 @@
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:miter lim="800%"/>
         </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:miter lim="800%"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:miter lim="800%"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
@@ -302,7 +307,7 @@
           <a:effectLst>
             <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="63%"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -314,32 +319,32 @@
         </a:solidFill>
         <a:solidFill>
           <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
+            <a:tint val="95%"/>
+            <a:satMod val="170%"/>
           </a:schemeClr>
         </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+            <a:gs pos="0%">
+              <a:schemeClr val="phClr">
+                <a:tint val="93%"/>
+                <a:satMod val="150%"/>
+                <a:shade val="98%"/>
+                <a:lumMod val="102%"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50%">
+              <a:schemeClr val="phClr">
+                <a:tint val="98%"/>
+                <a:satMod val="130%"/>
+                <a:shade val="90%"/>
+                <a:lumMod val="103%"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100%">
+              <a:schemeClr val="phClr">
+                <a:shade val="63%"/>
+                <a:satMod val="120%"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -359,7 +364,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/auto_output1.xlsx
+++ b/auto_output1.xlsx
@@ -1,59 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15" conformance="strict">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr dateCompatibility="0" defaultThemeVersion="153222"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stabassum\Documents\GitHub\AppiumTestProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stabassum\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
   </bookViews>
   <sheets>
-    <sheet name="auto" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr/>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="8" uniqueCount="8">
-  <si>
-    <t>demo1</t>
-  </si>
-  <si>
-    <t>Part2</t>
-  </si>
-  <si>
-    <t>24.8634587,67.0753729</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>textbox7</t>
-  </si>
-  <si>
-    <t>segmented1</t>
-  </si>
-  <si>
-    <t>location1</t>
-  </si>
-  <si>
-    <t>barcodereader1</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -73,8 +44,8 @@
   </fills>
   <borders count="1">
     <border>
-      <start/>
-      <end/>
+      <left/>
+      <right/>
       <top/>
       <bottom/>
       <diagonal/>
@@ -103,7 +74,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -222,25 +193,25 @@
         </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
-            <a:gs pos="0%">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110%"/>
-                <a:satMod val="105%"/>
-                <a:tint val="67%"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50%">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105%"/>
-                <a:satMod val="103%"/>
-                <a:tint val="73%"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100%">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105%"/>
-                <a:satMod val="109%"/>
-                <a:tint val="81%"/>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -248,25 +219,25 @@
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
-            <a:gs pos="0%">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103%"/>
-                <a:lumMod val="102%"/>
-                <a:tint val="94%"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50%">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110%"/>
-                <a:lumMod val="100%"/>
-                <a:shade val="100%"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100%">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99%"/>
-                <a:satMod val="120%"/>
-                <a:shade val="78%"/>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -279,21 +250,21 @@
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800%"/>
+          <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800%"/>
+          <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800%"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
@@ -307,7 +278,7 @@
           <a:effectLst>
             <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63%"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -319,32 +290,32 @@
         </a:solidFill>
         <a:solidFill>
           <a:schemeClr val="phClr">
-            <a:tint val="95%"/>
-            <a:satMod val="170%"/>
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
-            <a:gs pos="0%">
-              <a:schemeClr val="phClr">
-                <a:tint val="93%"/>
-                <a:satMod val="150%"/>
-                <a:shade val="98%"/>
-                <a:lumMod val="102%"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50%">
-              <a:schemeClr val="phClr">
-                <a:tint val="98%"/>
-                <a:satMod val="130%"/>
-                <a:shade val="90%"/>
-                <a:lumMod val="103%"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100%">
-              <a:schemeClr val="phClr">
-                <a:shade val="63%"/>
-                <a:satMod val="120%"/>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -364,47 +335,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>157</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>